--- a/data/pca/factorExposure/factorExposure_2012-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-14.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01783906858228205</v>
+        <v>-0.02096123010389337</v>
       </c>
       <c r="C2">
-        <v>-0.0356224567248418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02800705928475627</v>
+      </c>
+      <c r="D2">
+        <v>0.006120253352865817</v>
+      </c>
+      <c r="E2">
+        <v>0.02620762708857702</v>
+      </c>
+      <c r="F2">
+        <v>-0.01288781420527467</v>
+      </c>
+      <c r="G2">
+        <v>0.01147392958047668</v>
+      </c>
+      <c r="H2">
+        <v>0.04435638788067692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07201497902801049</v>
+        <v>-0.08146031164335957</v>
       </c>
       <c r="C4">
-        <v>-0.0600730282805356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03969682032157365</v>
+      </c>
+      <c r="D4">
+        <v>-0.07134027537055825</v>
+      </c>
+      <c r="E4">
+        <v>-0.0003045635989989616</v>
+      </c>
+      <c r="F4">
+        <v>-0.03395257048719118</v>
+      </c>
+      <c r="G4">
+        <v>-0.002660393310079089</v>
+      </c>
+      <c r="H4">
+        <v>-0.03366257719630137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1007414743065746</v>
+        <v>-0.1172454319205503</v>
       </c>
       <c r="C6">
-        <v>-0.0644876690128583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04113225327559024</v>
+      </c>
+      <c r="D6">
+        <v>-0.01142404704635588</v>
+      </c>
+      <c r="E6">
+        <v>-0.003730601394599784</v>
+      </c>
+      <c r="F6">
+        <v>-0.05945896790518928</v>
+      </c>
+      <c r="G6">
+        <v>0.01826518287164745</v>
+      </c>
+      <c r="H6">
+        <v>0.07373060832581638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04930226638947485</v>
+        <v>-0.05984183357729932</v>
       </c>
       <c r="C7">
-        <v>-0.03218607546251147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02182014801758616</v>
+      </c>
+      <c r="D7">
+        <v>-0.04027265100623643</v>
+      </c>
+      <c r="E7">
+        <v>0.02251074048380655</v>
+      </c>
+      <c r="F7">
+        <v>-0.03403837806433119</v>
+      </c>
+      <c r="G7">
+        <v>-0.04315918869343126</v>
+      </c>
+      <c r="H7">
+        <v>-0.02437562094705807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03493271219349754</v>
+        <v>-0.03933404674654003</v>
       </c>
       <c r="C8">
-        <v>-0.02167516621431572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0126177555192968</v>
+      </c>
+      <c r="D8">
+        <v>-0.04108612460202514</v>
+      </c>
+      <c r="E8">
+        <v>0.006621427950207139</v>
+      </c>
+      <c r="F8">
+        <v>-0.04749444760584768</v>
+      </c>
+      <c r="G8">
+        <v>0.02360977123221348</v>
+      </c>
+      <c r="H8">
+        <v>0.02703681403595104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06602044296760745</v>
+        <v>-0.0752822131486347</v>
       </c>
       <c r="C9">
-        <v>-0.04620759380088021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02768155944000308</v>
+      </c>
+      <c r="D9">
+        <v>-0.06687636216964281</v>
+      </c>
+      <c r="E9">
+        <v>0.01959024447150835</v>
+      </c>
+      <c r="F9">
+        <v>-0.04201177333538082</v>
+      </c>
+      <c r="G9">
+        <v>-0.0002237181280771689</v>
+      </c>
+      <c r="H9">
+        <v>-0.05391770279801281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03143506643608571</v>
+        <v>-0.0391449166723476</v>
       </c>
       <c r="C10">
-        <v>-0.03208208178244137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03263901169653671</v>
+      </c>
+      <c r="D10">
+        <v>0.1774724582398608</v>
+      </c>
+      <c r="E10">
+        <v>0.04762496530501896</v>
+      </c>
+      <c r="F10">
+        <v>-0.04081247539790064</v>
+      </c>
+      <c r="G10">
+        <v>-0.03761500774041218</v>
+      </c>
+      <c r="H10">
+        <v>0.03195266112365867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06778436835293268</v>
+        <v>-0.0765519931810435</v>
       </c>
       <c r="C11">
-        <v>-0.05180415572290439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03206135367707168</v>
+      </c>
+      <c r="D11">
+        <v>-0.06453452497859372</v>
+      </c>
+      <c r="E11">
+        <v>-0.01074190984346265</v>
+      </c>
+      <c r="F11">
+        <v>-0.02926829616505058</v>
+      </c>
+      <c r="G11">
+        <v>-0.01315632845541236</v>
+      </c>
+      <c r="H11">
+        <v>-0.08994001800917269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05426320144536605</v>
+        <v>-0.06586954712889194</v>
       </c>
       <c r="C12">
-        <v>-0.05277470741777187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03774045702272334</v>
+      </c>
+      <c r="D12">
+        <v>-0.04917039590482346</v>
+      </c>
+      <c r="E12">
+        <v>0.008995311742150444</v>
+      </c>
+      <c r="F12">
+        <v>-0.02493048870255515</v>
+      </c>
+      <c r="G12">
+        <v>-0.006241903469562861</v>
+      </c>
+      <c r="H12">
+        <v>-0.05173002329406886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05942493479550117</v>
+        <v>-0.06332844821642951</v>
       </c>
       <c r="C13">
-        <v>-0.0475239635786798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02773348097904089</v>
+      </c>
+      <c r="D13">
+        <v>-0.03954384727165774</v>
+      </c>
+      <c r="E13">
+        <v>-0.0005252959593567013</v>
+      </c>
+      <c r="F13">
+        <v>-0.001968228169372054</v>
+      </c>
+      <c r="G13">
+        <v>-0.006543026265232875</v>
+      </c>
+      <c r="H13">
+        <v>-0.05712920812086773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03175391487493124</v>
+        <v>-0.04104520183622825</v>
       </c>
       <c r="C14">
-        <v>-0.0317046420572526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02502874495427511</v>
+      </c>
+      <c r="D14">
+        <v>-0.007240467287932828</v>
+      </c>
+      <c r="E14">
+        <v>0.02158601517196066</v>
+      </c>
+      <c r="F14">
+        <v>-0.01743046358878693</v>
+      </c>
+      <c r="G14">
+        <v>0.00743550134124839</v>
+      </c>
+      <c r="H14">
+        <v>-0.05858818859476642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03919568454683083</v>
+        <v>-0.0395724454302066</v>
       </c>
       <c r="C15">
-        <v>-0.01103999818646027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001664631880837182</v>
+      </c>
+      <c r="D15">
+        <v>-0.006820716055280854</v>
+      </c>
+      <c r="E15">
+        <v>0.03976176965712158</v>
+      </c>
+      <c r="F15">
+        <v>-0.0008991809780350772</v>
+      </c>
+      <c r="G15">
+        <v>0.02256150678497326</v>
+      </c>
+      <c r="H15">
+        <v>-0.05326649056311838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05698033431695165</v>
+        <v>-0.06482977405897686</v>
       </c>
       <c r="C16">
-        <v>-0.044910004729698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02915977984476475</v>
+      </c>
+      <c r="D16">
+        <v>-0.06031253603373021</v>
+      </c>
+      <c r="E16">
+        <v>-0.0003614561818020693</v>
+      </c>
+      <c r="F16">
+        <v>-0.0246407316425844</v>
+      </c>
+      <c r="G16">
+        <v>-0.005965782469720968</v>
+      </c>
+      <c r="H16">
+        <v>-0.05545756762351675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06152335905573184</v>
+        <v>-0.0623477235160601</v>
       </c>
       <c r="C20">
-        <v>-0.03892515033584739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0183292778099964</v>
+      </c>
+      <c r="D20">
+        <v>-0.05242144916022476</v>
+      </c>
+      <c r="E20">
+        <v>0.01775461505345294</v>
+      </c>
+      <c r="F20">
+        <v>-0.02638448746178085</v>
+      </c>
+      <c r="G20">
+        <v>-0.004091782535681133</v>
+      </c>
+      <c r="H20">
+        <v>-0.05110597014218169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02432802769023739</v>
+        <v>-0.02496858343913109</v>
       </c>
       <c r="C21">
-        <v>-0.002277845051715964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.00557815673085709</v>
+      </c>
+      <c r="D21">
+        <v>-0.03623319916003111</v>
+      </c>
+      <c r="E21">
+        <v>0.07673299093332099</v>
+      </c>
+      <c r="F21">
+        <v>0.0149051049514258</v>
+      </c>
+      <c r="G21">
+        <v>0.007299194926576206</v>
+      </c>
+      <c r="H21">
+        <v>0.02181063579477735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06970156207873737</v>
+        <v>-0.06276884403859606</v>
       </c>
       <c r="C22">
-        <v>-0.06734119854937685</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03896423120290222</v>
+      </c>
+      <c r="D22">
+        <v>-0.09913860938805155</v>
+      </c>
+      <c r="E22">
+        <v>0.6128345121835858</v>
+      </c>
+      <c r="F22">
+        <v>0.1323946068320613</v>
+      </c>
+      <c r="G22">
+        <v>-0.01655916680520166</v>
+      </c>
+      <c r="H22">
+        <v>0.1332851991312597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07069894355070107</v>
+        <v>-0.06327706792291087</v>
       </c>
       <c r="C23">
-        <v>-0.06651191914845249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03782279411660665</v>
+      </c>
+      <c r="D23">
+        <v>-0.09997699558022118</v>
+      </c>
+      <c r="E23">
+        <v>0.6117321678967562</v>
+      </c>
+      <c r="F23">
+        <v>0.1316451613379336</v>
+      </c>
+      <c r="G23">
+        <v>-0.01524351065544444</v>
+      </c>
+      <c r="H23">
+        <v>0.1288012763057974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06614918885978835</v>
+        <v>-0.07591565834356764</v>
       </c>
       <c r="C24">
-        <v>-0.05359686310584021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03436337700714631</v>
+      </c>
+      <c r="D24">
+        <v>-0.06197068646934239</v>
+      </c>
+      <c r="E24">
+        <v>0.007606493084173059</v>
+      </c>
+      <c r="F24">
+        <v>-0.03714574556139521</v>
+      </c>
+      <c r="G24">
+        <v>0.0004103417972210385</v>
+      </c>
+      <c r="H24">
+        <v>-0.06297880619311839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06670650337357953</v>
+        <v>-0.07484308337820672</v>
       </c>
       <c r="C25">
-        <v>-0.05948856714431772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03913720929153382</v>
+      </c>
+      <c r="D25">
+        <v>-0.05757372792915708</v>
+      </c>
+      <c r="E25">
+        <v>0.01141783611712299</v>
+      </c>
+      <c r="F25">
+        <v>-0.03261041863525001</v>
+      </c>
+      <c r="G25">
+        <v>0.01240427715038489</v>
+      </c>
+      <c r="H25">
+        <v>-0.07099318620353655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0409607367335519</v>
+        <v>-0.04493239435692855</v>
       </c>
       <c r="C26">
-        <v>-0.01225608729183071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.00345227421635812</v>
+      </c>
+      <c r="D26">
+        <v>-0.02791518543162525</v>
+      </c>
+      <c r="E26">
+        <v>0.03735280945486836</v>
+      </c>
+      <c r="F26">
+        <v>-0.02510654497218628</v>
+      </c>
+      <c r="G26">
+        <v>-0.008040839242718098</v>
+      </c>
+      <c r="H26">
+        <v>-0.06276162677308782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05827931653430404</v>
+        <v>-0.07517600752177347</v>
       </c>
       <c r="C28">
-        <v>-0.0704543735990686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.06851921803212967</v>
+      </c>
+      <c r="D28">
+        <v>0.3158542518197074</v>
+      </c>
+      <c r="E28">
+        <v>0.03666283262581551</v>
+      </c>
+      <c r="F28">
+        <v>-0.05726283743545632</v>
+      </c>
+      <c r="G28">
+        <v>0.02959198772968139</v>
+      </c>
+      <c r="H28">
+        <v>-0.001819374412361421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03870790807442741</v>
+        <v>-0.04647413434308972</v>
       </c>
       <c r="C29">
-        <v>-0.03093402929403549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02290428117389037</v>
+      </c>
+      <c r="D29">
+        <v>-0.009999156231730496</v>
+      </c>
+      <c r="E29">
+        <v>0.0425100231723546</v>
+      </c>
+      <c r="F29">
+        <v>-0.009849615590834098</v>
+      </c>
+      <c r="G29">
+        <v>-0.01001116245593808</v>
+      </c>
+      <c r="H29">
+        <v>-0.0889030838442055</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1175064041602431</v>
+        <v>-0.1315920139181551</v>
       </c>
       <c r="C30">
-        <v>-0.09925723742184109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06343733690848033</v>
+      </c>
+      <c r="D30">
+        <v>-0.09088046187473363</v>
+      </c>
+      <c r="E30">
+        <v>0.04224017718231422</v>
+      </c>
+      <c r="F30">
+        <v>-0.01025932187057358</v>
+      </c>
+      <c r="G30">
+        <v>0.0315364318282715</v>
+      </c>
+      <c r="H30">
+        <v>0.032792419885293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03958564872337917</v>
+        <v>-0.04519058979330413</v>
       </c>
       <c r="C31">
-        <v>-0.02167082273245052</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01174963521970067</v>
+      </c>
+      <c r="D31">
+        <v>-0.02537161896201891</v>
+      </c>
+      <c r="E31">
+        <v>0.02389023222494713</v>
+      </c>
+      <c r="F31">
+        <v>-0.01373326677721327</v>
+      </c>
+      <c r="G31">
+        <v>-0.02134968027747395</v>
+      </c>
+      <c r="H31">
+        <v>-0.07231925117032945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03493749411511771</v>
+        <v>-0.0335749240908998</v>
       </c>
       <c r="C32">
-        <v>-0.02425708212707959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01344601849616219</v>
+      </c>
+      <c r="D32">
+        <v>-0.01440677331447653</v>
+      </c>
+      <c r="E32">
+        <v>0.06953271624794877</v>
+      </c>
+      <c r="F32">
+        <v>0.002001701560842462</v>
+      </c>
+      <c r="G32">
+        <v>0.03210633198408912</v>
+      </c>
+      <c r="H32">
+        <v>-0.0583303292565641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07510583069623523</v>
+        <v>-0.09227623425296484</v>
       </c>
       <c r="C33">
-        <v>-0.04664381072037304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02969812573906378</v>
+      </c>
+      <c r="D33">
+        <v>-0.05925310326344194</v>
+      </c>
+      <c r="E33">
+        <v>0.01550121882192377</v>
+      </c>
+      <c r="F33">
+        <v>-0.01088934209679874</v>
+      </c>
+      <c r="G33">
+        <v>-0.01660231371623734</v>
+      </c>
+      <c r="H33">
+        <v>-0.06440251628684293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05314124745573356</v>
+        <v>-0.05913129073709301</v>
       </c>
       <c r="C34">
-        <v>-0.03335162823520833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01731290860705167</v>
+      </c>
+      <c r="D34">
+        <v>-0.05798919959833309</v>
+      </c>
+      <c r="E34">
+        <v>0.002464980846771504</v>
+      </c>
+      <c r="F34">
+        <v>-0.02172318554973369</v>
+      </c>
+      <c r="G34">
+        <v>0.002527185344201602</v>
+      </c>
+      <c r="H34">
+        <v>-0.04910425380095017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0362169876912752</v>
+        <v>-0.04033769913051101</v>
       </c>
       <c r="C35">
-        <v>-0.01291011396763105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005209587115283414</v>
+      </c>
+      <c r="D35">
+        <v>-0.01209286425012311</v>
+      </c>
+      <c r="E35">
+        <v>0.0210488237722338</v>
+      </c>
+      <c r="F35">
+        <v>0.006062531872635417</v>
+      </c>
+      <c r="G35">
+        <v>-0.01227546634542529</v>
+      </c>
+      <c r="H35">
+        <v>-0.0362308037546944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01882538751858204</v>
+        <v>-0.02467269114808042</v>
       </c>
       <c r="C36">
-        <v>-0.01538815615689492</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01121736080258815</v>
+      </c>
+      <c r="D36">
+        <v>-0.01727714193674783</v>
+      </c>
+      <c r="E36">
+        <v>0.03845356301054315</v>
+      </c>
+      <c r="F36">
+        <v>-0.01958943679514322</v>
+      </c>
+      <c r="G36">
+        <v>-0.01380670467971098</v>
+      </c>
+      <c r="H36">
+        <v>-0.05512351466936634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03866091002601785</v>
+        <v>-0.04273062827267916</v>
       </c>
       <c r="C38">
-        <v>-0.006182734302190219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0009428114347506993</v>
+      </c>
+      <c r="D38">
+        <v>-0.02035584867514406</v>
+      </c>
+      <c r="E38">
+        <v>0.05902206428185001</v>
+      </c>
+      <c r="F38">
+        <v>0.004749171601616711</v>
+      </c>
+      <c r="G38">
+        <v>0.01761710680643287</v>
+      </c>
+      <c r="H38">
+        <v>-0.03077133846716645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08745474033976831</v>
+        <v>-0.09963395334041023</v>
       </c>
       <c r="C39">
-        <v>-0.08131481892514118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.0540965536355297</v>
+      </c>
+      <c r="D39">
+        <v>-0.07269980823662626</v>
+      </c>
+      <c r="E39">
+        <v>-0.01411331138212311</v>
+      </c>
+      <c r="F39">
+        <v>-0.01130355491273765</v>
+      </c>
+      <c r="G39">
+        <v>0.01941118466703435</v>
+      </c>
+      <c r="H39">
+        <v>-0.04870752617844822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06783251838651701</v>
+        <v>-0.07024247326535793</v>
       </c>
       <c r="C40">
-        <v>-0.05314036903304418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03109751773139662</v>
+      </c>
+      <c r="D40">
+        <v>-0.008314186079515748</v>
+      </c>
+      <c r="E40">
+        <v>0.02123115893503802</v>
+      </c>
+      <c r="F40">
+        <v>0.05076068064995444</v>
+      </c>
+      <c r="G40">
+        <v>0.06798718515420576</v>
+      </c>
+      <c r="H40">
+        <v>0.08857443202091324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03980697028785513</v>
+        <v>-0.04269957389338943</v>
       </c>
       <c r="C41">
-        <v>-0.01148904934956513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.002791005286688623</v>
+      </c>
+      <c r="D41">
+        <v>-0.038497998359415</v>
+      </c>
+      <c r="E41">
+        <v>0.006424221832640416</v>
+      </c>
+      <c r="F41">
+        <v>0.01138713362487966</v>
+      </c>
+      <c r="G41">
+        <v>0.01133461663772246</v>
+      </c>
+      <c r="H41">
+        <v>-0.04078547440381011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04412104838563142</v>
+        <v>-0.05215135583230748</v>
       </c>
       <c r="C43">
-        <v>-0.02899515220726362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.0180238311719048</v>
+      </c>
+      <c r="D43">
+        <v>-0.02533642115844604</v>
+      </c>
+      <c r="E43">
+        <v>0.01776124567180515</v>
+      </c>
+      <c r="F43">
+        <v>-0.009489324569453644</v>
+      </c>
+      <c r="G43">
+        <v>-0.005939149936919458</v>
+      </c>
+      <c r="H43">
+        <v>-0.05325469822617203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0897817421710547</v>
+        <v>-0.09061201418405511</v>
       </c>
       <c r="C44">
-        <v>-0.09906505728645608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06551936797820943</v>
+      </c>
+      <c r="D44">
+        <v>-0.06007430341271834</v>
+      </c>
+      <c r="E44">
+        <v>0.0973127314357127</v>
+      </c>
+      <c r="F44">
+        <v>-0.04984289586778666</v>
+      </c>
+      <c r="G44">
+        <v>0.03054734047432854</v>
+      </c>
+      <c r="H44">
+        <v>0.001164262954760287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02527566825111131</v>
+        <v>-0.02918686883433835</v>
       </c>
       <c r="C46">
-        <v>-0.01490367321898179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.008711199578976052</v>
+      </c>
+      <c r="D46">
+        <v>-0.0314867703841763</v>
+      </c>
+      <c r="E46">
+        <v>0.01917816260295063</v>
+      </c>
+      <c r="F46">
+        <v>-0.02035760888429337</v>
+      </c>
+      <c r="G46">
+        <v>0.0009025276187473764</v>
+      </c>
+      <c r="H46">
+        <v>-0.03666119017193262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02612416510086064</v>
+        <v>-0.03020992553057119</v>
       </c>
       <c r="C47">
-        <v>-0.02104132606444636</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01387373748658765</v>
+      </c>
+      <c r="D47">
+        <v>-0.01395060482747632</v>
+      </c>
+      <c r="E47">
+        <v>0.04875691798943141</v>
+      </c>
+      <c r="F47">
+        <v>-0.01464485242720851</v>
+      </c>
+      <c r="G47">
+        <v>-0.03498721809467114</v>
+      </c>
+      <c r="H47">
+        <v>-0.03464545801825682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0288050360663506</v>
+        <v>-0.03456392667925578</v>
       </c>
       <c r="C48">
-        <v>-0.02007411832262278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.0121795622473913</v>
+      </c>
+      <c r="D48">
+        <v>-0.03166951874370622</v>
+      </c>
+      <c r="E48">
+        <v>0.03995649011629928</v>
+      </c>
+      <c r="F48">
+        <v>-0.008358632705391349</v>
+      </c>
+      <c r="G48">
+        <v>0.006599279043401404</v>
+      </c>
+      <c r="H48">
+        <v>-0.05730882808879709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1538671023245892</v>
+        <v>-0.1846571470778955</v>
       </c>
       <c r="C49">
-        <v>-0.08802781765012518</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05453185525889254</v>
+      </c>
+      <c r="D49">
+        <v>-0.01850021726444734</v>
+      </c>
+      <c r="E49">
+        <v>-0.1280741911969878</v>
+      </c>
+      <c r="F49">
+        <v>-0.04078506951747662</v>
+      </c>
+      <c r="G49">
+        <v>-0.04145566515699885</v>
+      </c>
+      <c r="H49">
+        <v>0.2610494657611617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03511571674422912</v>
+        <v>-0.04396725344783025</v>
       </c>
       <c r="C50">
-        <v>-0.02613233822829269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01944473727262302</v>
+      </c>
+      <c r="D50">
+        <v>-0.03498418131502056</v>
+      </c>
+      <c r="E50">
+        <v>0.04850644434080066</v>
+      </c>
+      <c r="F50">
+        <v>-0.02148474978687279</v>
+      </c>
+      <c r="G50">
+        <v>-0.01591253382127844</v>
+      </c>
+      <c r="H50">
+        <v>-0.07642036335223612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02439330251483023</v>
+        <v>-0.02623806655876466</v>
       </c>
       <c r="C51">
-        <v>-0.01368441238809467</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.008673953926534698</v>
+      </c>
+      <c r="D51">
+        <v>-0.02287978415032382</v>
+      </c>
+      <c r="E51">
+        <v>0.01458432838323656</v>
+      </c>
+      <c r="F51">
+        <v>-0.01125665680348784</v>
+      </c>
+      <c r="G51">
+        <v>0.0027895126873543</v>
+      </c>
+      <c r="H51">
+        <v>-0.008074313086342638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1415832986218444</v>
+        <v>-0.1593286289367626</v>
       </c>
       <c r="C53">
-        <v>-0.09069021651197519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05946624362884385</v>
+      </c>
+      <c r="D53">
+        <v>-0.02008735680163481</v>
+      </c>
+      <c r="E53">
+        <v>-0.03797714051866214</v>
+      </c>
+      <c r="F53">
+        <v>-0.01383624978129736</v>
+      </c>
+      <c r="G53">
+        <v>-0.003187432165355407</v>
+      </c>
+      <c r="H53">
+        <v>-0.155593178689233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0536317316102231</v>
+        <v>-0.05740256992648662</v>
       </c>
       <c r="C54">
-        <v>-0.02610189230111508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01207667581639482</v>
+      </c>
+      <c r="D54">
+        <v>-0.02726081840496701</v>
+      </c>
+      <c r="E54">
+        <v>0.04755161284926624</v>
+      </c>
+      <c r="F54">
+        <v>-0.01512826261888517</v>
+      </c>
+      <c r="G54">
+        <v>0.008167563219186907</v>
+      </c>
+      <c r="H54">
+        <v>-0.05818571543512557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09365686632502122</v>
+        <v>-0.1006306703760909</v>
       </c>
       <c r="C55">
-        <v>-0.0620174093945418</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03944249332686257</v>
+      </c>
+      <c r="D55">
+        <v>-0.02505292141520125</v>
+      </c>
+      <c r="E55">
+        <v>0.008746682024357005</v>
+      </c>
+      <c r="F55">
+        <v>-0.01628216073617955</v>
+      </c>
+      <c r="G55">
+        <v>0.005139560278189013</v>
+      </c>
+      <c r="H55">
+        <v>-0.1449547481911124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1404827440520049</v>
+        <v>-0.1598780396731789</v>
       </c>
       <c r="C56">
-        <v>-0.1030869307079452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06939031719385243</v>
+      </c>
+      <c r="D56">
+        <v>-0.01873580043540146</v>
+      </c>
+      <c r="E56">
+        <v>-0.03768664146749064</v>
+      </c>
+      <c r="F56">
+        <v>-0.03364583478820916</v>
+      </c>
+      <c r="G56">
+        <v>-0.01530086521498837</v>
+      </c>
+      <c r="H56">
+        <v>-0.1621834557751331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1188818908931944</v>
+        <v>-0.1001883944368613</v>
       </c>
       <c r="C58">
-        <v>-0.02118243917531172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.02064840547359516</v>
+      </c>
+      <c r="D58">
+        <v>-0.0558789987770628</v>
+      </c>
+      <c r="E58">
+        <v>0.1849050302503177</v>
+      </c>
+      <c r="F58">
+        <v>-0.01952294509292483</v>
+      </c>
+      <c r="G58">
+        <v>-0.04713077921576132</v>
+      </c>
+      <c r="H58">
+        <v>0.1779152228748812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.116047130776489</v>
+        <v>-0.1463031546669178</v>
       </c>
       <c r="C59">
-        <v>-0.08188349925683387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.0756249223556839</v>
+      </c>
+      <c r="D59">
+        <v>0.3621341890802537</v>
+      </c>
+      <c r="E59">
+        <v>0.04928735520452211</v>
+      </c>
+      <c r="F59">
+        <v>-0.004795625736026026</v>
+      </c>
+      <c r="G59">
+        <v>-0.03610200844044882</v>
+      </c>
+      <c r="H59">
+        <v>0.003281767523239633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1904595495692172</v>
+        <v>-0.2243688823488071</v>
       </c>
       <c r="C60">
-        <v>-0.1145669887301049</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07501467697315062</v>
+      </c>
+      <c r="D60">
+        <v>-0.02915625985123297</v>
+      </c>
+      <c r="E60">
+        <v>-0.07338958920029785</v>
+      </c>
+      <c r="F60">
+        <v>-0.05099892731153506</v>
+      </c>
+      <c r="G60">
+        <v>0.02470505122590239</v>
+      </c>
+      <c r="H60">
+        <v>0.1672562765906029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07592788729208878</v>
+        <v>-0.08555326764564437</v>
       </c>
       <c r="C61">
-        <v>-0.06173696621608087</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04072551571351112</v>
+      </c>
+      <c r="D61">
+        <v>-0.05381834994848272</v>
+      </c>
+      <c r="E61">
+        <v>-0.01678072329533079</v>
+      </c>
+      <c r="F61">
+        <v>-0.008764922698281778</v>
+      </c>
+      <c r="G61">
+        <v>-0.01279848595446966</v>
+      </c>
+      <c r="H61">
+        <v>-0.06595522650985575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1221748946004573</v>
+        <v>-0.1403257985346437</v>
       </c>
       <c r="C62">
-        <v>-0.07884379075881556</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0519305403842219</v>
+      </c>
+      <c r="D62">
+        <v>-0.02496429834203211</v>
+      </c>
+      <c r="E62">
+        <v>-0.05456132753633508</v>
+      </c>
+      <c r="F62">
+        <v>-0.008271733152467093</v>
+      </c>
+      <c r="G62">
+        <v>0.02715086719979394</v>
+      </c>
+      <c r="H62">
+        <v>-0.1566474079064837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05151268258399098</v>
+        <v>-0.0513226373867812</v>
       </c>
       <c r="C63">
-        <v>-0.03057588483221358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01554287313214333</v>
+      </c>
+      <c r="D63">
+        <v>-0.02732053333588794</v>
+      </c>
+      <c r="E63">
+        <v>0.04891694094822809</v>
+      </c>
+      <c r="F63">
+        <v>-0.006491383325281193</v>
+      </c>
+      <c r="G63">
+        <v>0.035626093935045</v>
+      </c>
+      <c r="H63">
+        <v>-0.08354048894179507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1050759335902287</v>
+        <v>-0.1116013430658145</v>
       </c>
       <c r="C64">
-        <v>-0.0415093184449496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01443756574564624</v>
+      </c>
+      <c r="D64">
+        <v>-0.05117057640304652</v>
+      </c>
+      <c r="E64">
+        <v>0.02402336800766015</v>
+      </c>
+      <c r="F64">
+        <v>-0.05232523326033491</v>
+      </c>
+      <c r="G64">
+        <v>0.03038994817900188</v>
+      </c>
+      <c r="H64">
+        <v>-0.068163787364421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1134448093556312</v>
+        <v>-0.1257097128754017</v>
       </c>
       <c r="C65">
-        <v>-0.06496266931089673</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03940391389112569</v>
+      </c>
+      <c r="D65">
+        <v>-0.004106685461394644</v>
+      </c>
+      <c r="E65">
+        <v>0.001792108800431933</v>
+      </c>
+      <c r="F65">
+        <v>-0.06739028122808319</v>
+      </c>
+      <c r="G65">
+        <v>0.0393674881390237</v>
+      </c>
+      <c r="H65">
+        <v>0.09015126442574191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1353998559979619</v>
+        <v>-0.1521384123289562</v>
       </c>
       <c r="C66">
-        <v>-0.08949904754267402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.0534578714430936</v>
+      </c>
+      <c r="D66">
+        <v>-0.1134855701544408</v>
+      </c>
+      <c r="E66">
+        <v>-0.05246284787558372</v>
+      </c>
+      <c r="F66">
+        <v>-0.02414805598937832</v>
+      </c>
+      <c r="G66">
+        <v>0.01905776421941427</v>
+      </c>
+      <c r="H66">
+        <v>-0.1163149445812188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07019605591560818</v>
+        <v>-0.07775685567421799</v>
       </c>
       <c r="C67">
-        <v>-0.02020113958339337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006459813002056536</v>
+      </c>
+      <c r="D67">
+        <v>-0.02994451883297732</v>
+      </c>
+      <c r="E67">
+        <v>0.02746998510069772</v>
+      </c>
+      <c r="F67">
+        <v>-0.0152883325638004</v>
+      </c>
+      <c r="G67">
+        <v>-0.00375228851145397</v>
+      </c>
+      <c r="H67">
+        <v>-0.02667086498266973</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05868352595517142</v>
+        <v>-0.06697366523664791</v>
       </c>
       <c r="C68">
-        <v>-0.04661711914640244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04362842459758196</v>
+      </c>
+      <c r="D68">
+        <v>0.2633528691488375</v>
+      </c>
+      <c r="E68">
+        <v>0.04955154190483817</v>
+      </c>
+      <c r="F68">
+        <v>-0.01381838438373363</v>
+      </c>
+      <c r="G68">
+        <v>-0.01114312874791862</v>
+      </c>
+      <c r="H68">
+        <v>-0.02327269172720331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04893035857462501</v>
+        <v>-0.04792177354024256</v>
       </c>
       <c r="C69">
-        <v>-0.02209995206584733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.006896020082352347</v>
+      </c>
+      <c r="D69">
+        <v>-0.02068733222876841</v>
+      </c>
+      <c r="E69">
+        <v>0.02460510870937302</v>
+      </c>
+      <c r="F69">
+        <v>0.003432177007945375</v>
+      </c>
+      <c r="G69">
+        <v>-0.009260749905551478</v>
+      </c>
+      <c r="H69">
+        <v>-0.06388630374353298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005116135010421218</v>
+        <v>-0.02129341713727426</v>
       </c>
       <c r="C70">
-        <v>0.003303502923744046</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003820474777625164</v>
+      </c>
+      <c r="D70">
+        <v>-0.0001590211899552194</v>
+      </c>
+      <c r="E70">
+        <v>-0.02715734232861264</v>
+      </c>
+      <c r="F70">
+        <v>-0.0188033596247382</v>
+      </c>
+      <c r="G70">
+        <v>-0.01595419419044034</v>
+      </c>
+      <c r="H70">
+        <v>0.05682594144109778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06255415808584198</v>
+        <v>-0.07206912380355851</v>
       </c>
       <c r="C71">
-        <v>-0.04413091299475021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04178523890038675</v>
+      </c>
+      <c r="D71">
+        <v>0.2944738278566337</v>
+      </c>
+      <c r="E71">
+        <v>0.04676004293620387</v>
+      </c>
+      <c r="F71">
+        <v>-0.04299413045130158</v>
+      </c>
+      <c r="G71">
+        <v>-0.004837358383759077</v>
+      </c>
+      <c r="H71">
+        <v>-0.01490096141449192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1343631692457545</v>
+        <v>-0.1542461014896153</v>
       </c>
       <c r="C72">
-        <v>-0.06928929959530727</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04113096383391937</v>
+      </c>
+      <c r="D72">
+        <v>-0.001180654271449277</v>
+      </c>
+      <c r="E72">
+        <v>-0.09030097585328455</v>
+      </c>
+      <c r="F72">
+        <v>0.1642450402476144</v>
+      </c>
+      <c r="G72">
+        <v>0.1082094489318061</v>
+      </c>
+      <c r="H72">
+        <v>-0.01387292449772608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2498787313782576</v>
+        <v>-0.27961721626485</v>
       </c>
       <c r="C73">
-        <v>-0.1417744951670986</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07802786168101838</v>
+      </c>
+      <c r="D73">
+        <v>-0.08709983933817293</v>
+      </c>
+      <c r="E73">
+        <v>-0.1847325718429953</v>
+      </c>
+      <c r="F73">
+        <v>-0.08404952057108044</v>
+      </c>
+      <c r="G73">
+        <v>-0.1827365530529231</v>
+      </c>
+      <c r="H73">
+        <v>0.549367655682761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07371976015114418</v>
+        <v>-0.08864163861648619</v>
       </c>
       <c r="C74">
-        <v>-0.08294080060336091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0622202298065498</v>
+      </c>
+      <c r="D74">
+        <v>-0.02709116571795642</v>
+      </c>
+      <c r="E74">
+        <v>-0.00524202349782577</v>
+      </c>
+      <c r="F74">
+        <v>0.01240525055252311</v>
+      </c>
+      <c r="G74">
+        <v>-0.03768095526586233</v>
+      </c>
+      <c r="H74">
+        <v>-0.128421500866153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09263624396412197</v>
+        <v>-0.1026094798402084</v>
       </c>
       <c r="C75">
-        <v>-0.05949991636549011</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03174989730419048</v>
+      </c>
+      <c r="D75">
+        <v>-0.008982541259586106</v>
+      </c>
+      <c r="E75">
+        <v>0.001457190376171015</v>
+      </c>
+      <c r="F75">
+        <v>-0.04294621488989354</v>
+      </c>
+      <c r="G75">
+        <v>-0.01977027137484401</v>
+      </c>
+      <c r="H75">
+        <v>-0.1249402412219159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.118917209925097</v>
+        <v>-0.1339004337939995</v>
       </c>
       <c r="C76">
-        <v>-0.097343024378753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06605476914248293</v>
+      </c>
+      <c r="D76">
+        <v>-0.0509798207930808</v>
+      </c>
+      <c r="E76">
+        <v>0.01276122142597891</v>
+      </c>
+      <c r="F76">
+        <v>-0.05515833483942736</v>
+      </c>
+      <c r="G76">
+        <v>-0.00696555450096386</v>
+      </c>
+      <c r="H76">
+        <v>-0.1644900963249921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1161401945136324</v>
+        <v>-0.113044919653784</v>
       </c>
       <c r="C77">
-        <v>-0.04864603119904379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01328338441309031</v>
+      </c>
+      <c r="D77">
+        <v>-0.02769027500829882</v>
+      </c>
+      <c r="E77">
+        <v>-0.0236481497685753</v>
+      </c>
+      <c r="F77">
+        <v>-0.212233821306727</v>
+      </c>
+      <c r="G77">
+        <v>0.8890982702194952</v>
+      </c>
+      <c r="H77">
+        <v>0.1396973535191774</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09053365239420154</v>
+        <v>-0.1199462238459735</v>
       </c>
       <c r="C78">
-        <v>-0.04819235003783399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03383149783068186</v>
+      </c>
+      <c r="D78">
+        <v>-0.09078240974803148</v>
+      </c>
+      <c r="E78">
+        <v>0.05749091319112749</v>
+      </c>
+      <c r="F78">
+        <v>-0.02141662348631498</v>
+      </c>
+      <c r="G78">
+        <v>0.04258883414131318</v>
+      </c>
+      <c r="H78">
+        <v>0.1051514843366414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1391267042939661</v>
+        <v>-0.1510428262673983</v>
       </c>
       <c r="C79">
-        <v>-0.09887106354849727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05868795563246117</v>
+      </c>
+      <c r="D79">
+        <v>-0.02947636653475967</v>
+      </c>
+      <c r="E79">
+        <v>-0.02247572906527844</v>
+      </c>
+      <c r="F79">
+        <v>-0.0126333063797915</v>
+      </c>
+      <c r="G79">
+        <v>-0.0228606555885161</v>
+      </c>
+      <c r="H79">
+        <v>-0.1585431172012142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0408158187182951</v>
+        <v>-0.04139278512500001</v>
       </c>
       <c r="C80">
-        <v>-0.01798997589867647</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006861581173185751</v>
+      </c>
+      <c r="D80">
+        <v>-0.02615284404758908</v>
+      </c>
+      <c r="E80">
+        <v>-0.003303068168849703</v>
+      </c>
+      <c r="F80">
+        <v>0.01507707884747776</v>
+      </c>
+      <c r="G80">
+        <v>-0.03774140407052461</v>
+      </c>
+      <c r="H80">
+        <v>-0.04366492212487763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1130091016952732</v>
+        <v>-0.119538397193239</v>
       </c>
       <c r="C81">
-        <v>-0.07001233383826173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03753506815573213</v>
+      </c>
+      <c r="D81">
+        <v>-0.0297982392426982</v>
+      </c>
+      <c r="E81">
+        <v>-0.001973694644297674</v>
+      </c>
+      <c r="F81">
+        <v>-0.02256080642806915</v>
+      </c>
+      <c r="G81">
+        <v>-0.05479021344451787</v>
+      </c>
+      <c r="H81">
+        <v>-0.180729301078971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.120226201293641</v>
+        <v>-0.1280139454837763</v>
       </c>
       <c r="C82">
-        <v>-0.08526627322173795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05265613698478579</v>
+      </c>
+      <c r="D82">
+        <v>-0.03169273359481234</v>
+      </c>
+      <c r="E82">
+        <v>-0.01804470779101583</v>
+      </c>
+      <c r="F82">
+        <v>-0.05373170062780986</v>
+      </c>
+      <c r="G82">
+        <v>-0.0538532753118092</v>
+      </c>
+      <c r="H82">
+        <v>-0.1731029422894708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07665338873370173</v>
+        <v>-0.08164319662249836</v>
       </c>
       <c r="C83">
-        <v>-0.01065545776552649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.009156108859063251</v>
+      </c>
+      <c r="D83">
+        <v>-0.04258126593234034</v>
+      </c>
+      <c r="E83">
+        <v>0.01456775742173562</v>
+      </c>
+      <c r="F83">
+        <v>-0.04841739238269963</v>
+      </c>
+      <c r="G83">
+        <v>-0.08458924199726554</v>
+      </c>
+      <c r="H83">
+        <v>0.05338300335423277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02583483048750645</v>
+        <v>-0.037540645150307</v>
       </c>
       <c r="C84">
-        <v>-0.02522077599193262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02156758640448825</v>
+      </c>
+      <c r="D84">
+        <v>-0.03589387677720657</v>
+      </c>
+      <c r="E84">
+        <v>0.02285163122685292</v>
+      </c>
+      <c r="F84">
+        <v>0.05064130214511019</v>
+      </c>
+      <c r="G84">
+        <v>-0.06212288127784685</v>
+      </c>
+      <c r="H84">
+        <v>-0.01859735421822494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1153123057149745</v>
+        <v>-0.1180193184240691</v>
       </c>
       <c r="C85">
-        <v>-0.06646962985179609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03224792859968666</v>
+      </c>
+      <c r="D85">
+        <v>-0.02710392322291673</v>
+      </c>
+      <c r="E85">
+        <v>0.00438632568808175</v>
+      </c>
+      <c r="F85">
+        <v>-0.05667597196026527</v>
+      </c>
+      <c r="G85">
+        <v>-0.01953584899960098</v>
+      </c>
+      <c r="H85">
+        <v>-0.1506855789681907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04718123787159961</v>
+        <v>-0.0510596395736178</v>
       </c>
       <c r="C86">
-        <v>-0.02480215495266107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01232360664676425</v>
+      </c>
+      <c r="D86">
+        <v>-0.02245761343972322</v>
+      </c>
+      <c r="E86">
+        <v>0.05682981668740673</v>
+      </c>
+      <c r="F86">
+        <v>-0.02400421165828784</v>
+      </c>
+      <c r="G86">
+        <v>-0.002474539282219114</v>
+      </c>
+      <c r="H86">
+        <v>-0.01381145842302238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1193595148729016</v>
+        <v>-0.1210556764409531</v>
       </c>
       <c r="C87">
-        <v>-0.07762217877977269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03814029378849151</v>
+      </c>
+      <c r="D87">
+        <v>-0.07194304570272909</v>
+      </c>
+      <c r="E87">
+        <v>0.01628346023298718</v>
+      </c>
+      <c r="F87">
+        <v>-0.01312474689014539</v>
+      </c>
+      <c r="G87">
+        <v>0.09770172387919666</v>
+      </c>
+      <c r="H87">
+        <v>-0.0009473912014243512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05315086222338724</v>
+        <v>-0.05824833030838059</v>
       </c>
       <c r="C88">
-        <v>-0.03193588774947172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01845294476330978</v>
+      </c>
+      <c r="D88">
+        <v>-0.02537121831982236</v>
+      </c>
+      <c r="E88">
+        <v>0.01587769325538797</v>
+      </c>
+      <c r="F88">
+        <v>-0.008441841834749981</v>
+      </c>
+      <c r="G88">
+        <v>0.008755207190027238</v>
+      </c>
+      <c r="H88">
+        <v>-0.06357957797067056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08462363104869164</v>
+        <v>-0.1053663452626995</v>
       </c>
       <c r="C89">
-        <v>-0.06928269131540073</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0671837603322472</v>
+      </c>
+      <c r="D89">
+        <v>0.3300692037085928</v>
+      </c>
+      <c r="E89">
+        <v>0.07774580461244607</v>
+      </c>
+      <c r="F89">
+        <v>-0.07529380775498135</v>
+      </c>
+      <c r="G89">
+        <v>-0.02157031889960287</v>
+      </c>
+      <c r="H89">
+        <v>0.007029452899449519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07399702271176213</v>
+        <v>-0.0879930128259296</v>
       </c>
       <c r="C90">
-        <v>-0.0546965453553519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05152943737771365</v>
+      </c>
+      <c r="D90">
+        <v>0.30411574274749</v>
+      </c>
+      <c r="E90">
+        <v>0.06443509216024518</v>
+      </c>
+      <c r="F90">
+        <v>-0.002779587588567303</v>
+      </c>
+      <c r="G90">
+        <v>-0.003019353413925775</v>
+      </c>
+      <c r="H90">
+        <v>-0.02084415904747039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07918169498970633</v>
+        <v>-0.08679823745940524</v>
       </c>
       <c r="C91">
-        <v>-0.0627756151739685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03919686837477256</v>
+      </c>
+      <c r="D91">
+        <v>-0.02628167937844354</v>
+      </c>
+      <c r="E91">
+        <v>0.01519017394909755</v>
+      </c>
+      <c r="F91">
+        <v>-0.003074068099900729</v>
+      </c>
+      <c r="G91">
+        <v>-0.04828198777729894</v>
+      </c>
+      <c r="H91">
+        <v>-0.08187880655097582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08504947078782822</v>
+        <v>-0.09862543697465997</v>
       </c>
       <c r="C92">
-        <v>-0.06946820530765567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06253360959256299</v>
+      </c>
+      <c r="D92">
+        <v>0.3451342224456002</v>
+      </c>
+      <c r="E92">
+        <v>0.05538703995900095</v>
+      </c>
+      <c r="F92">
+        <v>-0.03680610987014469</v>
+      </c>
+      <c r="G92">
+        <v>0.002992092846837696</v>
+      </c>
+      <c r="H92">
+        <v>-0.01914839193972756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06777524569556866</v>
+        <v>-0.08595491093546571</v>
       </c>
       <c r="C93">
-        <v>-0.06032619466041527</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06025738739970788</v>
+      </c>
+      <c r="D93">
+        <v>0.3041136407154598</v>
+      </c>
+      <c r="E93">
+        <v>0.0380366236781366</v>
+      </c>
+      <c r="F93">
+        <v>-0.04804312043988203</v>
+      </c>
+      <c r="G93">
+        <v>0.008787127031240604</v>
+      </c>
+      <c r="H93">
+        <v>0.007759965159337835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1256488429887564</v>
+        <v>-0.1281811434280205</v>
       </c>
       <c r="C94">
-        <v>-0.07298794936845628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03352105275311948</v>
+      </c>
+      <c r="D94">
+        <v>-0.04988739338710275</v>
+      </c>
+      <c r="E94">
+        <v>-0.02070677692923306</v>
+      </c>
+      <c r="F94">
+        <v>-0.02405085432837128</v>
+      </c>
+      <c r="G94">
+        <v>-0.04458189255972396</v>
+      </c>
+      <c r="H94">
+        <v>-0.09526501904026967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1145836880680159</v>
+        <v>-0.1235076796485786</v>
       </c>
       <c r="C95">
-        <v>-0.05212266413242426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02021399537673244</v>
+      </c>
+      <c r="D95">
+        <v>-0.06206527931618033</v>
+      </c>
+      <c r="E95">
+        <v>-0.01167100256387427</v>
+      </c>
+      <c r="F95">
+        <v>-0.02962269573399065</v>
+      </c>
+      <c r="G95">
+        <v>-0.009150202917004833</v>
+      </c>
+      <c r="H95">
+        <v>0.003416483450766761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2027000855993095</v>
+        <v>-0.2182128459233107</v>
       </c>
       <c r="C97">
-        <v>-0.06355316723232071</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01933573129506167</v>
+      </c>
+      <c r="D97">
+        <v>0.06197325144256789</v>
+      </c>
+      <c r="E97">
+        <v>-0.1667880154882712</v>
+      </c>
+      <c r="F97">
+        <v>0.8977655748650788</v>
+      </c>
+      <c r="G97">
+        <v>0.1545102988770591</v>
+      </c>
+      <c r="H97">
+        <v>0.003143362569155632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2412901587153234</v>
+        <v>-0.2676092759829071</v>
       </c>
       <c r="C98">
-        <v>-0.1044328949365473</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04760640164769536</v>
+      </c>
+      <c r="D98">
+        <v>-0.05647376109673397</v>
+      </c>
+      <c r="E98">
+        <v>-0.1581810853833771</v>
+      </c>
+      <c r="F98">
+        <v>-0.04807235139459912</v>
+      </c>
+      <c r="G98">
+        <v>-0.2702943979032448</v>
+      </c>
+      <c r="H98">
+        <v>0.2118655475299955</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5247450457604568</v>
+        <v>-0.3195440056122752</v>
       </c>
       <c r="C99">
-        <v>0.839988289155596</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9349855405045064</v>
+      </c>
+      <c r="D99">
+        <v>0.06673829320450148</v>
+      </c>
+      <c r="E99">
+        <v>0.0424881386978138</v>
+      </c>
+      <c r="F99">
+        <v>-0.04456535975609088</v>
+      </c>
+      <c r="G99">
+        <v>-0.01357117049274718</v>
+      </c>
+      <c r="H99">
+        <v>-0.04442443670387451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03878408257633451</v>
+        <v>-0.04657624065082233</v>
       </c>
       <c r="C101">
-        <v>-0.03094449230326347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02299611846113869</v>
+      </c>
+      <c r="D101">
+        <v>-0.01049318774924019</v>
+      </c>
+      <c r="E101">
+        <v>0.04172732698023103</v>
+      </c>
+      <c r="F101">
+        <v>-0.009317319253553082</v>
+      </c>
+      <c r="G101">
+        <v>-0.01012527156069687</v>
+      </c>
+      <c r="H101">
+        <v>-0.08811407375516216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
